--- a/story/Main Story and Others 主线剧情等/Operator Record 干员密录/story_helage_1_1.xlsx
+++ b/story/Main Story and Others 主线剧情等/Operator Record 干员密录/story_helage_1_1.xlsx
@@ -1472,7 +1472,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="ヘラグ"]  運命は彼に逃れられぬ役割を与えた。彼は早くからその事実を識っていたが、だからといて決して屈服などしない。
+    <t xml:space="preserve">[name="ヘラグ"]  運命は彼に逃れられぬ役割を与えた。彼は早くからその事実をしっていたが、だからといって決して屈服などしない。
 </t>
   </si>
   <si>
@@ -2708,7 +2708,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="헬라그"]  하지만……. 하지만 이젠 그 늪에서 빠져나와 내가 살았던 그곳을 다른 관점에서 보게 됐네……
+    <t xml:space="preserve">[name="헬라그"]  하지만…… 하지만 이젠 그 늪에서 빠져나와 내가 살았던 그곳을 다른 관점에서 보게 됐네……
 </t>
   </si>
   <si>
